--- a/data/trans_camb/P35A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,6</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 6,72</t>
+          <t>-15,37; 0,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 16,08</t>
+          <t>-8,27; 11,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 5,33</t>
+          <t>-8,87; 9,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 16,97</t>
+          <t>-18,09; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 11,64</t>
+          <t>-9,04; 7,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 17,09</t>
+          <t>-7,01; 6,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 5,89</t>
+          <t>-5,55; 7,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 10,7</t>
+          <t>-2,89; 11,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 4,67</t>
+          <t>-10,47; 5,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 11,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 1,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 7,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 8,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 2,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 7,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,54%</t>
+          <t>-46,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,53%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,57%</t>
+          <t>-13,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-31,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-31,87%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 40,67</t>
+          <t>-74,4; 13,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 70,09</t>
+          <t>-39,41; 100,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 28,97</t>
+          <t>-46,37; 92,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 136,81</t>
+          <t>-77,8; 21,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 87,17</t>
+          <t>-67,92; 139,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 118,03</t>
+          <t>-58,88; 95,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 28,58</t>
+          <t>-45,96; 128,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 52,08</t>
+          <t>-26,83; 200,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 21,82</t>
+          <t>-57,36; 71,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 318,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-59,54; 13,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,42; 73,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; 83,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-60,76; 21,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-39,66; 142,27</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-7,82</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 17,83</t>
+          <t>-9,98; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 13,04</t>
+          <t>-12,08; 8,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 20,49</t>
+          <t>-12,65; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 18,26</t>
+          <t>-7,93; 9,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 22,59</t>
+          <t>-9,94; 8,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 15,56</t>
+          <t>-3,66; 6,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 15,27</t>
+          <t>-1,97; 7,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 15,28</t>
+          <t>4,02; 16,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 14,95</t>
+          <t>-15,54; -1,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 6,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 6,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 7,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 9,45</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 2,57</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 5,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>101,86%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>185,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>-52,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-25,12%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 103,01</t>
+          <t>-47,2; 104,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 77,59</t>
+          <t>-53,27; 80,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 116,7</t>
+          <t>-58,95; 77,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 305,77</t>
+          <t>-46,86; 113,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 340,31</t>
+          <t>-52,98; 92,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,97; 241,75</t>
+          <t>-48,58; 248,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 107,55</t>
+          <t>-28,42; 260,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 106,33</t>
+          <t>42,04; 585,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 104,02</t>
+          <t>-80,13; -13,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-47,22; 224,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-34,64; 95,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,49; 100,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,74; 125,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 27,16</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-40,56; 83,77</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 12,06</t>
+          <t>-6,39; 7,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 14,15</t>
+          <t>-5,46; 7,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 22,41</t>
+          <t>0,83; 16,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 16,29</t>
+          <t>-16,07; -0,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,97</t>
+          <t>-10,15; 3,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,29</t>
+          <t>-1,05; 5,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 10,72</t>
+          <t>-2,44; 3,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,12</t>
+          <t>0,71; 8,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 14,29</t>
+          <t>-4,0; 5,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 10,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 5,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 4,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 10,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 0,55</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 4,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>-43,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>-23,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>115,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>145,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>86,38%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-26,83%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 108,54</t>
+          <t>-42,1; 90,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 114,89</t>
+          <t>-37,57; 101,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 179,9</t>
+          <t>2,18; 194,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 286,17</t>
+          <t>-65,9; -5,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 172,06</t>
+          <t>-56,21; 28,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 157,7</t>
+          <t>-23,33; 252,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 102,28</t>
+          <t>-45,34; 180,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 87,31</t>
+          <t>5,53; 347,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 136,31</t>
+          <t>-39,62; 88,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 450,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-25,09; 86,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 71,12</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 189,97</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-51,3; 5,1</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,39; 62,2</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 3,56</t>
+          <t>-6,87; 3,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 9,24</t>
+          <t>-3,84; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 18,45</t>
+          <t>1,4; 14,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 9,99</t>
+          <t>-12,53; 0,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 2,15</t>
+          <t>-3,31; 8,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 18,98</t>
+          <t>-1,95; 3,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 4,2</t>
+          <t>-3,82; 1,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,39</t>
+          <t>-2,7; 2,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 15,92</t>
+          <t>-0,41; 7,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 6,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 2,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 3,57</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 7,39</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 3,34</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 5,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-18,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>75,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,45%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>101,76%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-35,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>59,72%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-11,01%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 33,34</t>
+          <t>-52,7; 57,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 82,74</t>
+          <t>-30,97; 98,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 156,72</t>
+          <t>6,35; 181,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 176,7</t>
+          <t>-57,9; 7,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 52,57</t>
+          <t>-28,08; 116,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 340,61</t>
+          <t>-42,93; 178,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 46,25</t>
+          <t>-74,42; 56,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 57,35</t>
+          <t>-58,19; 130,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 162,14</t>
+          <t>-14,22; 301,39</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-35,55; 201,93</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-42,68; 49,25</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 65,49</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 147,75</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-39,83; 36,57</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 102,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 7,33</t>
+          <t>-2,21; 4,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 10,59</t>
+          <t>-0,03; 7,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 23,57</t>
+          <t>3,75; 15,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>-11,72; 1,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,55</t>
+          <t>-7,29; 4,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 17,93</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 5,04</t>
+          <t>0,3; 2,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 8,57</t>
+          <t>0,9; 5,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,5; 18,26</t>
+          <t>-0,6; 7,04</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 6,96</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,61</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 4,51</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 9,02</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 3,0</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 4,18</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>221,71%</t>
+          <t>222,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>-35,37%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-13,97%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>35,73%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>114,29%</t>
-        </is>
-      </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>293,57%</t>
+          <t>121,74%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>92,78%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>126,21%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>289,12%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 216,51</t>
+          <t>-44,04; 229,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 305,77</t>
+          <t>-11,82; 369,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42,89; 726,17</t>
+          <t>60,16; 667,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>-69,17; 27,89</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-61,09; 66,15</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-40,07; 222,04</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 427,78</t>
-        </is>
-      </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>88,93; 799,04</t>
+          <t>-37,11; 634,93</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-28,16; 547,57</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-47,33; 243,43</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 411,23</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>81,9; 800,54</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-48,3; 60,72</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-37,09; 100,87</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 6,62</t>
+          <t>-2,29; 3,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 8,86</t>
+          <t>-1,0; 6,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,82</t>
+          <t>2,15; 12,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 5,94</t>
+          <t>-7,62; 4,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 0,0</t>
+          <t>1,48; 10,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 20,73</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 5,17</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,61</t>
+          <t>-0,29; 3,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,66</t>
+          <t>-2,9; 1,44</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 1,43</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,92</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 2,44</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 6,89</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,65</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 4,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>108,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>318,92%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>299,57%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>60,18%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>228,23%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>16,76%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>262,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>-39,16%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>34,5%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>64,95%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>311,62%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-23,21%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>158,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 612,24</t>
+          <t>-74,61; 492,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 626,3</t>
+          <t>-43,66; 898,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 450,72</t>
+          <t>35,14; 2097,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>-65,11; 95,76</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-70,74; 343,19</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-65,7; 381,21</t>
-        </is>
-      </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,24; 330,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-61,11; 518,52</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-54,46; 550,39</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>48,21; 1553,58</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-62,43; 65,82</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 927,61</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,36</t>
+          <t>-3,29; 1,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,38</t>
+          <t>-1,06; 4,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 9,36</t>
+          <t>2,34; 8,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,9</t>
+          <t>-7,73; -1,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,17</t>
+          <t>-2,56; 3,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,4</t>
+          <t>-0,48; 2,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,54</t>
+          <t>-0,65; 2,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,12</t>
+          <t>1,74; 5,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,86</t>
+          <t>-2,36; 1,64</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 4,44</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 1,48</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 2,61</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 5,86</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; -0,52</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 3,03</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-7,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>-30,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>62,33%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>64,6%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-22,39%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 25,78</t>
+          <t>-29,35; 21,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 48,63</t>
+          <t>-9,46; 55,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 67,54</t>
+          <t>20,23; 100,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 91,97</t>
+          <t>-46,7; -10,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 66,5</t>
+          <t>-22,46; 35,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 102,63</t>
+          <t>-12,62; 86,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 30,3</t>
+          <t>-16,92; 74,48</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 42,58</t>
+          <t>39,39; 194,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,18; 65,17</t>
+          <t>-31,07; 28,19</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 136,06</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-21,91; 25,32</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 45,6</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>29,78; 103,83</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-36,41; -5,31</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 47,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
